--- a/data/params_test/tests_results_xlsx.xlsx
+++ b/data/params_test/tests_results_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evandromendonca/Documents/NOVA IMS/Projeto final/GA Waste Management/ga_waste_management/data/params_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4326573F-67C8-1D4F-9D3D-DE7A288D661D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF41A43-A200-EB49-B891-B387388AEFF5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13649,7 +13649,8 @@
         <c:axId val="2116223871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="100000"/>
+          <c:max val="500"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13747,6 +13748,8 @@
         <c:crossAx val="2071193039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -22514,10 +22517,10 @@
       <xdr:rowOff>201950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>196273</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22928,8 +22931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32004,7 +32007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7911E-8745-AE4F-9F08-8ABA1DBEC32C}">
   <dimension ref="A1:DC37"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -40195,7 +40198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D2" sqref="C2:D7"/>
     </sheetView>
   </sheetViews>
